--- a/frequency_little.xlsx
+++ b/frequency_little.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizhi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markvanhezik/Documents/EmbeddedSystems/git/EmbeddedSystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB274DC4-CCE2-43EC-B3AC-C0ABA639714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C868D5-48B8-8C4C-9D0F-2498276F21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9" yWindow="3643" windowWidth="24694" windowHeight="13054" xr2:uid="{A7E91B0E-EAE0-431D-A3A4-A03AEB156CB1}"/>
+    <workbookView xWindow="720" yWindow="2720" windowWidth="24700" windowHeight="13060" xr2:uid="{A7E91B0E-EAE0-431D-A3A4-A03AEB156CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -443,16 +444,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>500000</v>
       </c>
@@ -486,7 +488,7 @@
         <v>947.68700000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>667000</v>
       </c>
@@ -503,7 +505,7 @@
         <v>710.40200000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000000</v>
       </c>
@@ -520,7 +522,7 @@
         <v>485.03399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1200000</v>
       </c>
@@ -537,7 +539,7 @@
         <v>411.75799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1398000</v>
       </c>
@@ -554,7 +556,7 @@
         <v>364.44400000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1512000</v>
       </c>
@@ -571,7 +573,7 @@
         <v>356.08199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1608000</v>
       </c>
@@ -588,7 +590,7 @@
         <v>322.16800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1704000</v>
       </c>
@@ -605,7 +607,7 @@
         <v>312.35000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1800000</v>
       </c>
@@ -622,7 +624,7 @@
         <v>311.94200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
